--- a/data/trans_orig/P14A26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28372ABC-8C93-4DBE-86D0-19E5AB5F667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF363B72-FC38-454E-9EAF-E171D9CE4963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B28F6D1-1440-4C98-BC57-7DE05F155C60}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B931FC96-0D6D-4561-96C9-0A87BF5FED48}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="248">
   <si>
     <t>Población que recibe medicación o terapia por hipoacusia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>41,7%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -120,19 +120,19 @@
     <t>58,3%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -174,7 +174,7 @@
     <t>24,67%</t>
   </si>
   <si>
-    <t>62,01%</t>
+    <t>64,19%</t>
   </si>
   <si>
     <t>16,68%</t>
@@ -186,343 +186,349 @@
     <t>19,94%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>18,09%</t>
   </si>
   <si>
     <t>71,97%</t>
@@ -531,7 +537,7 @@
     <t>22,88%</t>
   </si>
   <si>
-    <t>59,46%</t>
+    <t>60,94%</t>
   </si>
   <si>
     <t>28,03%</t>
@@ -540,7 +546,7 @@
     <t>77,12%</t>
   </si>
   <si>
-    <t>40,54%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -552,67 +558,61 @@
     <t>35,7%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>75,13%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>24,87%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>51,61%</t>
+    <t>51,75%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>43,54%</t>
+    <t>49,12%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>48,39%</t>
+    <t>48,25%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>56,46%</t>
+    <t>50,88%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,09%</t>
   </si>
   <si>
     <t>62,87%</t>
@@ -627,178 +627,160 @@
     <t>44,8%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
     <t>37,13%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
     <t>55,2%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>55,68%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>44,32%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AD0B78-3962-47D8-8A73-7CF2E128D171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D015F22-2C21-4F8F-AC45-AC21BF25992C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2106,13 +2088,13 @@
         <v>1087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2121,13 +2103,13 @@
         <v>5135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2124,13 @@
         <v>4237</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2157,10 +2139,10 @@
         <v>3182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -2172,13 +2154,13 @@
         <v>7419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,7 +2216,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2228,13 @@
         <v>3791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2261,13 +2243,13 @@
         <v>3013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2276,13 +2258,13 @@
         <v>6805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2279,13 @@
         <v>12261</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2312,13 +2294,13 @@
         <v>7589</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2327,13 +2309,13 @@
         <v>19850</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,7 +2371,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2401,13 +2383,13 @@
         <v>1030</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2416,13 +2398,13 @@
         <v>4346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2431,13 +2413,13 @@
         <v>5376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,10 +2434,10 @@
         <v>3294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -2467,13 +2449,13 @@
         <v>3468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2482,13 +2464,13 @@
         <v>6762</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2538,13 @@
         <v>13809</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -2571,13 +2553,13 @@
         <v>18895</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2586,13 +2568,13 @@
         <v>32704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2589,13 @@
         <v>38968</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -2622,13 +2604,13 @@
         <v>43785</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -2637,13 +2619,13 @@
         <v>82752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2681,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2723,7 +2705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92405912-EAAA-4B24-90E6-46D81B60E948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37D36-A242-4F2F-90A1-42955573BD05}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2740,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2847,13 +2829,13 @@
         <v>3622</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2862,13 +2844,13 @@
         <v>5234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2877,13 +2859,13 @@
         <v>8856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2880,13 @@
         <v>3578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2913,13 +2895,13 @@
         <v>2913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2928,13 +2910,13 @@
         <v>6491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +2984,7 @@
         <v>1903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -3032,13 +3014,13 @@
         <v>1903</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3035,7 @@
         <v>741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -3083,10 +3065,10 @@
         <v>6413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -3178,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3226,7 +3208,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>25</v>
@@ -3312,13 +3294,13 @@
         <v>2546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3342,13 +3324,13 @@
         <v>2546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3345,13 @@
         <v>4587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3676,7 +3658,7 @@
         <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3688,13 +3670,13 @@
         <v>3013</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3703,13 +3685,13 @@
         <v>7262</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3747,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3777,13 +3759,13 @@
         <v>5416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3792,13 +3774,13 @@
         <v>16591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3807,13 +3789,13 @@
         <v>22007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3810,13 @@
         <v>8045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -3843,13 +3825,13 @@
         <v>13204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3858,13 +3840,13 @@
         <v>21249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3902,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3932,13 +3914,13 @@
         <v>4230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3962,13 +3944,13 @@
         <v>4230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3965,13 @@
         <v>4994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4013,13 +3995,13 @@
         <v>10414</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4069,13 @@
         <v>18510</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -4102,13 +4084,13 @@
         <v>28032</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -4117,13 +4099,13 @@
         <v>46542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4120,13 @@
         <v>30527</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -4153,13 +4135,13 @@
         <v>44134</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -4168,13 +4150,13 @@
         <v>74661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4212,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF363B72-FC38-454E-9EAF-E171D9CE4963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBF0EA8-E19C-47B7-A7FC-9EDB6B6EF2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B931FC96-0D6D-4561-96C9-0A87BF5FED48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03A47F8B-84BD-4189-81BB-4A8879CF772C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="252">
   <si>
     <t>Población que recibe medicación o terapia por hipoacusia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>41,7%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -120,19 +120,19 @@
     <t>58,3%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -150,7 +150,7 @@
     <t>18,5%</t>
   </si>
   <si>
-    <t>60,1%</t>
+    <t>59,94%</t>
   </si>
   <si>
     <t>63,49%</t>
@@ -165,7 +165,7 @@
     <t>81,5%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>40,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -174,43 +174,43 @@
     <t>24,67%</t>
   </si>
   <si>
-    <t>64,19%</t>
+    <t>62,24%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>45,33%</t>
+    <t>51,9%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>35,81%</t>
+    <t>37,76%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>54,67%</t>
+    <t>48,1%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -219,49 +219,49 @@
     <t>13,15%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>62,19%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>37,81%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -270,49 +270,43 @@
     <t>48,86%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -321,55 +315,55 @@
     <t>23,62%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>76,38%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -384,19 +378,19 @@
     <t>55,61%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>76,17%</t>
@@ -408,379 +402,397 @@
     <t>44,39%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,96%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipoacusia en 2016 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>55,26%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>44,74%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D015F22-2C21-4F8F-AC45-AC21BF25992C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EDC7A1-EF78-4236-8ACB-B1598AEEE9A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2094,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2103,13 +2115,13 @@
         <v>5135</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2136,13 @@
         <v>4237</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2139,10 +2151,10 @@
         <v>3182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -2154,13 +2166,13 @@
         <v>7419</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2228,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2228,13 +2240,13 @@
         <v>3791</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2243,13 +2255,13 @@
         <v>3013</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2258,13 +2270,13 @@
         <v>6805</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2291,13 @@
         <v>12261</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2294,13 +2306,13 @@
         <v>7589</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2309,13 +2321,13 @@
         <v>19850</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2383,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2383,13 +2395,13 @@
         <v>1030</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2398,13 +2410,13 @@
         <v>4346</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2413,13 +2425,13 @@
         <v>5376</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,10 +2446,10 @@
         <v>3294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -2449,13 +2461,13 @@
         <v>3468</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2464,13 +2476,13 @@
         <v>6762</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2550,13 @@
         <v>13809</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -2553,13 +2565,13 @@
         <v>18895</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2568,13 +2580,13 @@
         <v>32704</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2601,13 @@
         <v>38968</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -2604,13 +2616,13 @@
         <v>43785</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -2619,13 +2631,13 @@
         <v>82752</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2693,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37D36-A242-4F2F-90A1-42955573BD05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAC1DBB-D613-491E-8154-37E80AC6F47C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2722,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2829,13 +2841,13 @@
         <v>3622</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2844,13 +2856,13 @@
         <v>5234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2859,13 +2871,13 @@
         <v>8856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2892,13 @@
         <v>3578</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2895,13 +2907,13 @@
         <v>2913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2910,13 +2922,13 @@
         <v>6491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +2996,7 @@
         <v>1903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -3014,13 +3026,13 @@
         <v>1903</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3047,7 @@
         <v>741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -3065,10 +3077,10 @@
         <v>6413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -3160,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3208,7 +3220,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>25</v>
@@ -3294,13 +3306,13 @@
         <v>2546</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3324,13 +3336,13 @@
         <v>2546</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3357,13 @@
         <v>4587</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3658,7 +3670,7 @@
         <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3670,13 +3682,13 @@
         <v>3013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3685,13 +3697,13 @@
         <v>7262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3759,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3759,13 +3771,13 @@
         <v>5416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3774,13 +3786,13 @@
         <v>16591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3789,13 +3801,13 @@
         <v>22007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3822,13 @@
         <v>8045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -3825,13 +3837,13 @@
         <v>13204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3840,13 +3852,13 @@
         <v>21249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,7 +3914,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3914,13 +3926,13 @@
         <v>4230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3944,13 +3956,13 @@
         <v>4230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3977,13 @@
         <v>4994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3995,13 +4007,13 @@
         <v>10414</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4081,13 @@
         <v>18510</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -4084,13 +4096,13 @@
         <v>28032</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -4099,13 +4111,13 @@
         <v>46542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4132,13 @@
         <v>30527</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -4135,13 +4147,13 @@
         <v>44134</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -4150,13 +4162,13 @@
         <v>74661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4224,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
